--- a/Trens de teresina.xlsx
+++ b/Trens de teresina.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrô" sheetId="1" r:id="rId1"/>
@@ -867,57 +867,57 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1209,7 +1209,7 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1222,11 +1222,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46"/>
+      <c r="C2" s="49"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
@@ -1343,7 +1343,7 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -1387,13 +1387,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="53" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="14">
@@ -1413,9 +1413,9 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="14">
         <v>102</v>
       </c>
@@ -1433,9 +1433,9 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="14">
         <v>103</v>
       </c>
@@ -1453,9 +1453,9 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="14">
         <v>104</v>
       </c>
@@ -1473,9 +1473,9 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="14">
         <v>105</v>
       </c>
@@ -1493,9 +1493,9 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="14">
         <v>106</v>
       </c>
@@ -1513,9 +1513,9 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="14">
         <v>109</v>
       </c>
@@ -1533,9 +1533,9 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="14">
         <v>170</v>
       </c>
@@ -1554,9 +1554,9 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="14">
         <v>201</v>
       </c>
@@ -1574,9 +1574,9 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="14">
         <v>202</v>
       </c>
@@ -1594,9 +1594,9 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="14">
         <v>203</v>
       </c>
@@ -1614,9 +1614,9 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="14">
         <v>204</v>
       </c>
@@ -1634,9 +1634,9 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="14">
         <v>206</v>
       </c>
@@ -1654,9 +1654,9 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="14">
         <v>270</v>
       </c>
@@ -1674,9 +1674,9 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="14">
         <v>301</v>
       </c>
@@ -1694,9 +1694,9 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="14">
         <v>303</v>
       </c>
@@ -1714,13 +1714,13 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="60" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="13">
@@ -1740,9 +1740,9 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="13">
         <v>5</v>
       </c>
@@ -1760,9 +1760,9 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="13">
         <v>6</v>
       </c>
@@ -1780,9 +1780,9 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="18">
         <v>101</v>
       </c>
@@ -1801,9 +1801,9 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="18">
         <v>103</v>
       </c>
@@ -1822,9 +1822,9 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="18">
         <v>104</v>
       </c>
@@ -1843,9 +1843,9 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="18">
         <v>105</v>
       </c>
@@ -1864,9 +1864,9 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="18">
         <v>106</v>
       </c>
@@ -1885,9 +1885,9 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="18">
         <v>109</v>
       </c>
@@ -1906,9 +1906,9 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="18">
         <v>170</v>
       </c>
@@ -1927,9 +1927,9 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="18">
         <v>270</v>
       </c>
@@ -1948,9 +1948,9 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="18">
         <v>327</v>
       </c>
@@ -1968,9 +1968,9 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="18">
         <v>365</v>
       </c>
@@ -1988,9 +1988,9 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="13" t="s">
         <v>26</v>
       </c>
@@ -2008,13 +2008,13 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="13">
@@ -2034,9 +2034,9 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="13">
         <v>6</v>
       </c>
@@ -2054,9 +2054,9 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
       <c r="D34" s="13" t="s">
         <v>26</v>
       </c>
@@ -2075,13 +2075,13 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="57" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="16">
@@ -2101,9 +2101,9 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
       <c r="D36" s="16">
         <v>611</v>
       </c>
@@ -2121,9 +2121,9 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="51"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
       <c r="D37" s="13" t="s">
         <v>33</v>
       </c>
@@ -2141,13 +2141,13 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="14">
@@ -2167,9 +2167,9 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="53"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="13" t="s">
         <v>35</v>
       </c>
@@ -2187,9 +2187,9 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="13" t="s">
         <v>36</v>
       </c>
@@ -2207,13 +2207,13 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="54" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="13">
@@ -2233,9 +2233,9 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="56"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
       <c r="D42" s="18">
         <v>100</v>
       </c>
@@ -2253,9 +2253,9 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="56"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
       <c r="D43" s="18">
         <v>505</v>
       </c>
@@ -2273,9 +2273,9 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="56"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
       <c r="D44" s="18">
         <v>601</v>
       </c>
@@ -2293,9 +2293,9 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="56"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
       <c r="D45" s="18">
         <v>710</v>
       </c>
@@ -2313,9 +2313,9 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="56"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="13" t="s">
         <v>40</v>
       </c>
@@ -2333,9 +2333,9 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="57"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
       <c r="D47" s="13" t="s">
         <v>41</v>
       </c>
@@ -2353,13 +2353,13 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="53" t="s">
         <v>42</v>
       </c>
       <c r="D48" s="14">
@@ -2379,9 +2379,9 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="14">
         <v>515</v>
       </c>
@@ -2393,9 +2393,9 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
       <c r="D50" s="14">
         <v>519</v>
       </c>
@@ -2408,9 +2408,9 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
       <c r="D51" s="14">
         <v>602</v>
       </c>
@@ -2422,9 +2422,9 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="47"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
       <c r="D52" s="14">
         <v>702</v>
       </c>
@@ -2436,9 +2436,9 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="47"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="13" t="s">
         <v>43</v>
       </c>
@@ -2450,9 +2450,9 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="13" t="s">
         <v>44</v>
       </c>
@@ -2464,13 +2464,13 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="54" t="s">
         <v>45</v>
       </c>
       <c r="D55" s="13">
@@ -2484,9 +2484,9 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="56"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
       <c r="D56" s="18">
         <v>509</v>
       </c>
@@ -2498,9 +2498,9 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="56"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
       <c r="D57" s="18">
         <v>510</v>
       </c>
@@ -2512,9 +2512,9 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="56"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="55"/>
       <c r="D58" s="18">
         <v>603</v>
       </c>
@@ -2526,9 +2526,9 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="56"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="18">
         <v>619</v>
       </c>
@@ -2540,9 +2540,9 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="56"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
+      <c r="A60" s="55"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
       <c r="D60" s="18">
         <v>703</v>
       </c>
@@ -2554,9 +2554,9 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="56"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
       <c r="D61" s="13" t="s">
         <v>35</v>
       </c>
@@ -2568,9 +2568,9 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="57"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
       <c r="D62" s="13" t="s">
         <v>47</v>
       </c>
@@ -2582,13 +2582,13 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C63" s="52" t="s">
+      <c r="C63" s="50" t="s">
         <v>48</v>
       </c>
       <c r="D63" s="13">
@@ -2602,9 +2602,9 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="53"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
       <c r="D64" s="14">
         <v>509</v>
       </c>
@@ -2617,9 +2617,9 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="53"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
       <c r="D65" s="14">
         <v>510</v>
       </c>
@@ -2632,9 +2632,9 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="53"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="51"/>
       <c r="D66" s="14">
         <v>603</v>
       </c>
@@ -2647,9 +2647,9 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="53"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
       <c r="D67" s="14">
         <v>619</v>
       </c>
@@ -2662,9 +2662,9 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="53"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
       <c r="D68" s="14">
         <v>703</v>
       </c>
@@ -2677,9 +2677,9 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="53"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="13" t="s">
         <v>35</v>
       </c>
@@ -2693,9 +2693,9 @@
       <c r="I69" s="25"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="54"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
       <c r="D70" s="13" t="s">
         <v>47</v>
       </c>
@@ -2719,6 +2719,24 @@
     <sortCondition descending="1" ref="I2"/>
   </sortState>
   <mergeCells count="27">
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="C2:C17"/>
+    <mergeCell ref="C18:C31"/>
+    <mergeCell ref="B18:B31"/>
+    <mergeCell ref="A18:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="A41:A47"/>
     <mergeCell ref="A63:A70"/>
     <mergeCell ref="B63:B70"/>
     <mergeCell ref="C63:C70"/>
@@ -2728,24 +2746,6 @@
     <mergeCell ref="A55:A62"/>
     <mergeCell ref="B55:B62"/>
     <mergeCell ref="C55:C62"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="C2:C17"/>
-    <mergeCell ref="C18:C31"/>
-    <mergeCell ref="B18:B31"/>
-    <mergeCell ref="A18:A31"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -2771,11 +2771,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="36" t="s">
@@ -2935,11 +2935,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="36" t="s">
@@ -3241,11 +3241,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46"/>
+      <c r="C2" s="49"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="42" t="s">
@@ -3492,11 +3492,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46"/>
+      <c r="C2" s="49"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="42" t="s">
@@ -3689,11 +3689,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46"/>
+      <c r="C2" s="49"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="42" t="s">
@@ -3873,23 +3873,23 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" style="62" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="63" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3900,130 +3900,130 @@
       <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46"/>
+      <c r="C2" s="49"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="46" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="46" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="46" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="46" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="46" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="46" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="46" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="46" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="46" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="46" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="46" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="46" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="46" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="46" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="46" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="46" t="s">
         <v>150</v>
       </c>
       <c r="B18" s="44" t="s">
@@ -4065,66 +4065,66 @@
       <c r="A2" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="39" t="s">

--- a/Trens de teresina.xlsx
+++ b/Trens de teresina.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrô" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,8 @@
     <sheet name="703" sheetId="7" r:id="rId6"/>
     <sheet name="508" sheetId="8" r:id="rId7"/>
     <sheet name="601" sheetId="9" r:id="rId8"/>
-    <sheet name="Nomes de ruas e locais" sheetId="5" r:id="rId9"/>
+    <sheet name="519" sheetId="10" r:id="rId9"/>
+    <sheet name="Nomes de ruas e locais" sheetId="5" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ônibus!$D$2:$D$17</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="158">
   <si>
     <t>Estações</t>
   </si>
@@ -503,6 +504,27 @@
   </si>
   <si>
     <t>Rua Dona Amélia Rubim</t>
+  </si>
+  <si>
+    <t>Rua Carlotinha Brito</t>
+  </si>
+  <si>
+    <t>Rua Padre Malagrida</t>
+  </si>
+  <si>
+    <t>Rua Doutor Pedro Teixeira</t>
+  </si>
+  <si>
+    <t>Rua Professor Pires Gayoso</t>
+  </si>
+  <si>
+    <t>Avenida Higino Cunha</t>
+  </si>
+  <si>
+    <t>Avenida Lenidas Melo</t>
+  </si>
+  <si>
+    <t>Rua Pires de Castro</t>
   </si>
 </sst>
 </file>
@@ -867,12 +889,12 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -916,6 +938,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1222,11 +1250,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1237,7 +1265,7 @@
       <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="47"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
@@ -1333,6 +1361,444 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0785FA8E-7B76-4A90-87F1-B3F4F5DCB693}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:F76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="79.85546875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="63" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A76">
+    <sortCondition ref="A76"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="C2:F8"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -1343,8 +1809,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" activeCellId="1" sqref="D50 D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1387,13 +1853,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="51" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="14">
@@ -1413,9 +1879,9 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="14">
         <v>102</v>
       </c>
@@ -1433,9 +1899,9 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="14">
         <v>103</v>
       </c>
@@ -1453,9 +1919,9 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="14">
         <v>104</v>
       </c>
@@ -1473,9 +1939,9 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="14">
         <v>105</v>
       </c>
@@ -1493,9 +1959,9 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="14">
         <v>106</v>
       </c>
@@ -1513,9 +1979,9 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="14">
         <v>109</v>
       </c>
@@ -1533,9 +1999,9 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="14">
         <v>170</v>
       </c>
@@ -1554,9 +2020,9 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="14">
         <v>201</v>
       </c>
@@ -1574,9 +2040,9 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="14">
         <v>202</v>
       </c>
@@ -1594,9 +2060,9 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="14">
         <v>203</v>
       </c>
@@ -1614,9 +2080,9 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="14">
         <v>204</v>
       </c>
@@ -1634,9 +2100,9 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="14">
         <v>206</v>
       </c>
@@ -1654,9 +2120,9 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="14">
         <v>270</v>
       </c>
@@ -1674,9 +2140,9 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="14">
         <v>301</v>
       </c>
@@ -1694,9 +2160,9 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="14">
         <v>303</v>
       </c>
@@ -1714,13 +2180,13 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="58" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="13">
@@ -1740,9 +2206,9 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="13">
         <v>5</v>
       </c>
@@ -1760,9 +2226,9 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="13">
         <v>6</v>
       </c>
@@ -1780,9 +2246,9 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="18">
         <v>101</v>
       </c>
@@ -1801,9 +2267,9 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="18">
         <v>103</v>
       </c>
@@ -1822,9 +2288,9 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="18">
         <v>104</v>
       </c>
@@ -1843,9 +2309,9 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="18">
         <v>105</v>
       </c>
@@ -1864,9 +2330,9 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="18">
         <v>106</v>
       </c>
@@ -1885,9 +2351,9 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="18">
         <v>109</v>
       </c>
@@ -1906,9 +2372,9 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="18">
         <v>170</v>
       </c>
@@ -1927,9 +2393,9 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="18">
         <v>270</v>
       </c>
@@ -1948,9 +2414,9 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="18">
         <v>327</v>
       </c>
@@ -1968,9 +2434,9 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="18">
         <v>365</v>
       </c>
@@ -1988,9 +2454,9 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="13" t="s">
         <v>26</v>
       </c>
@@ -2008,13 +2474,13 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="51" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="13">
@@ -2034,9 +2500,9 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="13">
         <v>6</v>
       </c>
@@ -2054,9 +2520,9 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
       <c r="D34" s="13" t="s">
         <v>26</v>
       </c>
@@ -2075,13 +2541,13 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="55" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="16">
@@ -2101,9 +2567,9 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
       <c r="D36" s="16">
         <v>611</v>
       </c>
@@ -2121,9 +2587,9 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="13" t="s">
         <v>33</v>
       </c>
@@ -2141,13 +2607,13 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="48" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="14">
@@ -2167,9 +2633,9 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="51"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="13" t="s">
         <v>35</v>
       </c>
@@ -2187,9 +2653,9 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="13" t="s">
         <v>36</v>
       </c>
@@ -2207,13 +2673,13 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="52" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="13">
@@ -2233,9 +2699,9 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="55"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="18">
         <v>100</v>
       </c>
@@ -2253,9 +2719,9 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="55"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
       <c r="D43" s="18">
         <v>505</v>
       </c>
@@ -2273,9 +2739,9 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="55"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="18">
         <v>601</v>
       </c>
@@ -2293,9 +2759,9 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="55"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="18">
         <v>710</v>
       </c>
@@ -2313,9 +2779,9 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="55"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
       <c r="D46" s="13" t="s">
         <v>40</v>
       </c>
@@ -2333,9 +2799,9 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="56"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="13" t="s">
         <v>41</v>
       </c>
@@ -2353,13 +2819,13 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="51" t="s">
         <v>42</v>
       </c>
       <c r="D48" s="14">
@@ -2379,9 +2845,9 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="53"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="14">
         <v>515</v>
       </c>
@@ -2393,9 +2859,9 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="53"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="14">
         <v>519</v>
       </c>
@@ -2408,9 +2874,9 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="53"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
       <c r="D51" s="14">
         <v>602</v>
       </c>
@@ -2422,9 +2888,9 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="53"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
       <c r="D52" s="14">
         <v>702</v>
       </c>
@@ -2436,9 +2902,9 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="53"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
       <c r="D53" s="13" t="s">
         <v>43</v>
       </c>
@@ -2450,9 +2916,9 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="53"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
       <c r="D54" s="13" t="s">
         <v>44</v>
       </c>
@@ -2464,13 +2930,13 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="54" t="s">
+      <c r="B55" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="52" t="s">
         <v>45</v>
       </c>
       <c r="D55" s="13">
@@ -2484,9 +2950,9 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="55"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="18">
         <v>509</v>
       </c>
@@ -2498,9 +2964,9 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="55"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
       <c r="D57" s="18">
         <v>510</v>
       </c>
@@ -2512,9 +2978,9 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="55"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
       <c r="D58" s="18">
         <v>603</v>
       </c>
@@ -2526,9 +2992,9 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="55"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="18">
         <v>619</v>
       </c>
@@ -2540,9 +3006,9 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="55"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="18">
         <v>703</v>
       </c>
@@ -2554,9 +3020,9 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="55"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
       <c r="D61" s="13" t="s">
         <v>35</v>
       </c>
@@ -2568,9 +3034,9 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="56"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="54"/>
       <c r="D62" s="13" t="s">
         <v>47</v>
       </c>
@@ -2582,13 +3048,13 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="50" t="s">
+      <c r="A63" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C63" s="50" t="s">
+      <c r="C63" s="48" t="s">
         <v>48</v>
       </c>
       <c r="D63" s="13">
@@ -2602,9 +3068,9 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="51"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="49"/>
       <c r="D64" s="14">
         <v>509</v>
       </c>
@@ -2617,9 +3083,9 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="51"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="49"/>
       <c r="D65" s="14">
         <v>510</v>
       </c>
@@ -2632,9 +3098,9 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="51"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="49"/>
       <c r="D66" s="14">
         <v>603</v>
       </c>
@@ -2647,9 +3113,9 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="51"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
       <c r="D67" s="14">
         <v>619</v>
       </c>
@@ -2662,9 +3128,9 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="51"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
       <c r="D68" s="14">
         <v>703</v>
       </c>
@@ -2677,9 +3143,9 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="51"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
+      <c r="A69" s="49"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
       <c r="D69" s="13" t="s">
         <v>35</v>
       </c>
@@ -2693,9 +3159,9 @@
       <c r="I69" s="25"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="52"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52"/>
+      <c r="A70" s="50"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
       <c r="D70" s="13" t="s">
         <v>47</v>
       </c>
@@ -2771,11 +3237,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="60" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2786,7 +3252,7 @@
       <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="36" t="s">
@@ -2935,11 +3401,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="60" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2950,7 +3416,7 @@
       <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="36" t="s">
@@ -3241,11 +3707,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3256,7 +3722,7 @@
       <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="47"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="42" t="s">
@@ -3492,11 +3958,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3507,7 +3973,7 @@
       <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="47"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="42" t="s">
@@ -3689,11 +4155,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3704,7 +4170,7 @@
       <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="47"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="42" t="s">
@@ -3873,23 +4339,23 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3900,130 +4366,175 @@
       <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="47"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="46">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="46" t="s">
+      <c r="C4" s="46">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B5" s="43" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="46" t="s">
+      <c r="C5" s="46">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B6" s="43" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="46" t="s">
+      <c r="C6" s="46">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B7" s="43" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="46" t="s">
+      <c r="C7" s="46">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B8" s="43" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="46" t="s">
+      <c r="C8" s="46">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="43" t="s">
         <v>91</v>
       </c>
+      <c r="C9" s="46">
+        <v>3730</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="43" t="s">
         <v>146</v>
       </c>
+      <c r="C10" s="46">
+        <v>2770</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="43" t="s">
         <v>132</v>
       </c>
+      <c r="C11" s="46">
+        <v>925</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="43" t="s">
         <v>133</v>
       </c>
+      <c r="C12" s="46">
+        <v>461</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="43" t="s">
         <v>94</v>
       </c>
+      <c r="C13" s="46">
+        <v>365</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="43" t="s">
         <v>147</v>
       </c>
+      <c r="C14" s="46">
+        <v>332</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="43" t="s">
         <v>149</v>
       </c>
+      <c r="C15" s="46">
+        <v>373</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="43" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="46" t="s">
+      <c r="C16" s="46">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="43" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="46" t="s">
+      <c r="C17" s="46">
+        <v>10960</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="42" t="s">
         <v>150</v>
       </c>
       <c r="B18" s="44" t="s">
@@ -4040,403 +4551,197 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0785FA8E-7B76-4A90-87F1-B3F4F5DCB693}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5839D1-B1D2-47F4-9B27-99BD5B390458}">
   <sheetPr>
-    <tabColor theme="1" tint="0.249977111117893"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="79.85546875" style="39" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36" style="42" customWidth="1"/>
+    <col min="2" max="2" width="38" style="43" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="39" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="47"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="39" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="39" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="39" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="39" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="39" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="39" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="39" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="43" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="39" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="39" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="39" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="39" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="39" t="s">
-        <v>134</v>
+    <row r="21" spans="1:2">
+      <c r="A21" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A69">
-    <sortCondition ref="A2"/>
-  </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="C2:F8"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
